--- a/biology/Botanique/James_Petiver/James_Petiver.xlsx
+++ b/biology/Botanique/James_Petiver/James_Petiver.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Petiver (vers 1663 - 1718) est un pharmacien anglais, membre de la Royal Society et du Temple Coffee House Botany Club, connu pour ses travaux de botanique et d'entomologie.
 Petiver a reçu de nombreux spécimens de plantes et de graines et d'autres documents de divers correspondants dans les colonies américaines. Ses collections sont conservées au Musée d'histoire naturelle de Londres.
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Musei Petiveriani centuria prima-decima, rariora naturae continens: viz. animalia, fossilia, plantas, ex variis mundi plagis advecta, ordine digesta et nominibus propriis signata, London, 1695-1703.
 An account of some Indian plants etc. with their names, descriptions and vertues; communicated in a letter from Mr. James Petiver...to Mr. Samuel Brown, surgeon at Fort St. George, Philosophical Transactions of the Royal Society, London, 1698.
@@ -545,7 +559,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « James Petiver » (voir la liste des auteurs).</t>
         </is>
